--- a/DATA_goal/Junction_Flooding_470.xlsx
+++ b/DATA_goal/Junction_Flooding_470.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44801.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44801.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.52</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44801.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.78</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.64</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.14</v>
+        <v>141.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.17</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.3</v>
+        <v>33.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44801.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.05</v>
+        <v>30.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.08</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.78</v>
+        <v>27.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_470.xlsx
+++ b/DATA_goal/Junction_Flooding_470.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,394 +652,394 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44801.54861111111</v>
+        <v>45151.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44801.55555555555</v>
+        <v>45151.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.45</v>
+        <v>16.281</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.49</v>
+        <v>11.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.773</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.68</v>
+        <v>35.701</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.78</v>
+        <v>28.146</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.21</v>
+        <v>12.694</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.44</v>
+        <v>48.355</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.17</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.24</v>
+        <v>12.469</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.68</v>
+        <v>14.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.27</v>
+        <v>15.007</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.02</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.19</v>
+        <v>17.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.54</v>
+        <v>11.077</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.463</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.55</v>
+        <v>1.021</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23</v>
+        <v>187.243</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.84</v>
+        <v>35.748</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.78</v>
+        <v>23.63</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.03</v>
+        <v>12.341</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.85</v>
+        <v>2.301</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.09</v>
+        <v>23.871</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.56</v>
+        <v>9.384</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.22</v>
+        <v>11.069</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.2</v>
+        <v>14.586</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.52</v>
+        <v>44.315</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.9</v>
+        <v>6.459</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44801.5625</v>
+        <v>45151.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.32</v>
+        <v>16.285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.19</v>
+        <v>11.865</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.305</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.16</v>
+        <v>35.685</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.78</v>
+        <v>28.551</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.25</v>
+        <v>12.726</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.4</v>
+        <v>50.064</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.03</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.84</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.44</v>
+        <v>12.702</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.89</v>
+        <v>14.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.68</v>
+        <v>15.091</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.18</v>
+        <v>4.105</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.67</v>
+        <v>18.088</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.49</v>
+        <v>10.952</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>1.003</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.45</v>
+        <v>187.247</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.28</v>
+        <v>35.762</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.02</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.06</v>
+        <v>23.823</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.74</v>
+        <v>12.473</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.31</v>
+        <v>2.095</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.59</v>
+        <v>24.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.17</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>10.973</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.54</v>
+        <v>14.739</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.01</v>
+        <v>45.671</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.95</v>
+        <v>6.538</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44801.56944444445</v>
+        <v>45151.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.07</v>
+        <v>6.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.9</v>
+        <v>21.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.77</v>
+        <v>16.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.11</v>
+        <v>7.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.5</v>
+        <v>31.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.55</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.26</v>
+        <v>7.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.53</v>
+        <v>10.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.13</v>
+        <v>107.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.08</v>
+        <v>21.13</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.96</v>
+        <v>14.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.21</v>
+        <v>15.13</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>6.13</v>
@@ -1048,126 +1048,22 @@
         <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.44</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.81</v>
+        <v>29.2</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.81</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44801.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_470.xlsx
+++ b/DATA_goal/Junction_Flooding_470.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45151.50694444445</v>
+        <v>44801.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45151.51388888889</v>
+        <v>44801.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.281</v>
+        <v>7.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.63</v>
+        <v>5.492</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.773</v>
+        <v>1.323</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.701</v>
+        <v>16.683</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.146</v>
+        <v>12.778</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.694</v>
+        <v>5.212</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.355</v>
+        <v>22.436</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.779</v>
+        <v>9.198</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.534000000000001</v>
+        <v>4.173</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.469</v>
+        <v>5.243</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.15</v>
+        <v>6.677</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.007</v>
+        <v>7.274</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.106</v>
+        <v>2.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.783</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.99</v>
+        <v>8.186999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.077</v>
+        <v>5.543</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.463</v>
+        <v>0.487</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.021</v>
+        <v>0.552</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.243</v>
+        <v>84.229</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.748</v>
+        <v>16.839</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.799</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.63</v>
+        <v>10.782</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.341</v>
+        <v>6.031</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.301</v>
+        <v>0.85</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.871</v>
+        <v>12.086</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.422</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.384</v>
+        <v>4.56</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.069</v>
+        <v>5.217</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.586</v>
+        <v>7.199</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.315</v>
+        <v>20.525</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.459</v>
+        <v>2.895</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.751</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45151.52083333334</v>
+        <v>44801.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.285</v>
+        <v>12.317</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.865</v>
+        <v>9.189</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.305</v>
+        <v>1.107</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.685</v>
+        <v>27.161</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.551</v>
+        <v>21.781</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.726</v>
+        <v>9.246</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.064</v>
+        <v>36.397</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.779</v>
+        <v>15.031</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.662000000000001</v>
+        <v>6.843</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.702</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.215</v>
+        <v>10.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.091</v>
+        <v>11.676</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.105</v>
+        <v>3.179</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.783</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.088</v>
+        <v>13.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.952</v>
+        <v>8.494</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.003</v>
+        <v>0.366</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.588</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.247</v>
+        <v>141.448</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.762</v>
+        <v>27.283</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.799</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.823</v>
+        <v>18.057</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.473</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.095</v>
+        <v>1.312</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.3</v>
+        <v>18.587</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.422</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.321999999999999</v>
+        <v>7.173</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.973</v>
+        <v>8.363</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.739</v>
+        <v>11.544</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.671</v>
+        <v>33.013</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.538</v>
+        <v>4.954</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.751</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45151.52777777778</v>
+        <v>44801.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.56</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.93</v>
+        <v>7.069</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.832</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.03</v>
+        <v>20.897</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.66</v>
+        <v>16.772</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.45</v>
+        <v>7.113</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.87</v>
+        <v>30.502</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.63</v>
+        <v>11.552</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.311</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.259</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.381</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.9</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.531</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.535</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.269</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.449</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.14</v>
+        <v>107.127</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.13</v>
+        <v>21.078</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.01</v>
+        <v>13.963</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.31</v>
+        <v>7.495</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.3</v>
+        <v>1.004</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.13</v>
+        <v>15.207</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.444</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.869</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>27.805</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>8.678000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44801.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+      <c r="E6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_470.xlsx
+++ b/DATA_goal/Junction_Flooding_470.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44801.54861111111</v>
+        <v>45151.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.971</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.342</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.281</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.251</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.378</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.239</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.412</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.207000000000001</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.471</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.767</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.829000000000001</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.124</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.871</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.593</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.541</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.247</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.315</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.838</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.072</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.924</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.517</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.296</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.767</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.035</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.721</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.104</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.808</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44801.55555555555</v>
+        <v>45151.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.45</v>
+        <v>16.281</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.492</v>
+        <v>11.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.323</v>
+        <v>1.773</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.683</v>
+        <v>35.701</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.778</v>
+        <v>28.146</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.212</v>
+        <v>12.694</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.436</v>
+        <v>48.355</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.198</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.173</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.243</v>
+        <v>12.469</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.677</v>
+        <v>14.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.274</v>
+        <v>15.007</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.02</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.186999999999999</v>
+        <v>17.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.543</v>
+        <v>11.077</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.487</v>
+        <v>1.463</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.552</v>
+        <v>1.021</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.229</v>
+        <v>187.243</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.839</v>
+        <v>35.748</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.782</v>
+        <v>23.63</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.031</v>
+        <v>12.341</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.85</v>
+        <v>2.301</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.086</v>
+        <v>23.871</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.56</v>
+        <v>9.384</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.217</v>
+        <v>11.069</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.199</v>
+        <v>14.586</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.945</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.525</v>
+        <v>44.315</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.895</v>
+        <v>6.459</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.942</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44801.5625</v>
+        <v>45151.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.317</v>
+        <v>16.285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.189</v>
+        <v>11.865</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.107</v>
+        <v>1.305</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.161</v>
+        <v>35.685</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.781</v>
+        <v>28.551</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.246</v>
+        <v>12.726</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.397</v>
+        <v>50.064</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.031</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.843</v>
+        <v>8.662000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.444000000000001</v>
+        <v>12.702</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.89</v>
+        <v>14.215</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.676</v>
+        <v>15.091</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.179</v>
+        <v>4.105</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.775</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.67</v>
+        <v>18.088</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.494</v>
+        <v>10.952</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.366</v>
+        <v>1.003</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.588</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.448</v>
+        <v>187.247</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.283</v>
+        <v>35.762</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.023</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.057</v>
+        <v>23.823</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.736000000000001</v>
+        <v>12.473</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.312</v>
+        <v>2.095</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.587</v>
+        <v>24.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.173</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.363</v>
+        <v>10.973</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.544</v>
+        <v>14.739</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.627</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.013</v>
+        <v>45.671</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.954</v>
+        <v>6.538</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44801.56944444445</v>
+        <v>45151.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.069</v>
+        <v>6.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.832</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.897</v>
+        <v>21.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.772</v>
+        <v>16.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.113</v>
+        <v>7.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.502</v>
+        <v>31.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.552</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.311</v>
+        <v>5.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.259</v>
+        <v>7.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.381</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.531</v>
+        <v>10.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.535</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.269</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.449</v>
+        <v>0.51</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.127</v>
+        <v>107.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.078</v>
+        <v>21.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.963</v>
+        <v>14.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.495</v>
+        <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.004</v>
+        <v>1.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.207</v>
+        <v>15.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>5.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.444</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.869</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.805</v>
+        <v>29.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.809</v>
+        <v>3.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.678000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44801.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
